--- a/biology/Botanique/Packera_tomentosa/Packera_tomentosa.xlsx
+++ b/biology/Botanique/Packera_tomentosa/Packera_tomentosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Woolly ragwort
-Packera tomentosa est une espèce de plante à fleurs de la famille des Asteraceae connue en anglais sous le nom de Woolly ragwort (séneçon laineux). Elle est originaire du Sud-Est des États-Unis, principalement de la plaine côtière, mais s'étend dans certaines régions à l'intérieur des terres[1]. 
-Son habitat préféré est les zones sablonneuses ouvertes et les affleurements granitiques. Elle est commune dans toute son aire de répartition[2].
-Packera tomentosa est une plante vivace qui produit une tête[Quoi ?] de fleurs jaunes à la fin du printemps. Il a été démontré que ses graines ont des masses variables dans une seule tête de fleurs, peut-être une adaptation pour une meilleure dispersion dans les habitats perturbés[3].
+Packera tomentosa est une espèce de plante à fleurs de la famille des Asteraceae connue en anglais sous le nom de Woolly ragwort (séneçon laineux). Elle est originaire du Sud-Est des États-Unis, principalement de la plaine côtière, mais s'étend dans certaines régions à l'intérieur des terres. 
+Son habitat préféré est les zones sablonneuses ouvertes et les affleurements granitiques. Elle est commune dans toute son aire de répartition.
+Packera tomentosa est une plante vivace qui produit une tête[Quoi ?] de fleurs jaunes à la fin du printemps. Il a été démontré que ses graines ont des masses variables dans une seule tête de fleurs, peut-être une adaptation pour une meilleure dispersion dans les habitats perturbés.
 </t>
         </is>
       </c>
